--- a/data/UML/gantexcel.xlsx
+++ b/data/UML/gantexcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ödev\3_yıl_2_dönem\Yazılım Mühendisliği\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\language-course-automation\data\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Başlangıç</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Süre</t>
   </si>
@@ -48,6 +45,12 @@
   </si>
   <si>
     <t>Geliştirme</t>
+  </si>
+  <si>
+    <t>Bitiş Tarihi</t>
+  </si>
+  <si>
+    <t>Başlangıç Tarihi</t>
   </si>
 </sst>
 </file>
@@ -119,6 +122,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Dil Kursu Otomasyonu Projesi Gant Diyagramı</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -165,7 +193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Başlangıç</c:v>
+                  <c:v>Başlangıç Tarihi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -289,7 +317,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25</c:v>
@@ -305,6 +333,82 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bitiş Tarihi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sayfa1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Test ve Dökümantasyon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Geliştirme</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Arayüz Tasarımı</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Veritabanı Tasarımı</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gereksinim Analizi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Genel Planlama</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,11 +424,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1827262352"/>
-        <c:axId val="-1827264528"/>
+        <c:axId val="68951520"/>
+        <c:axId val="68947168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1827262352"/>
+        <c:axId val="68951520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,7 +471,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1827264528"/>
+        <c:crossAx val="68947168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -375,7 +479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1827264528"/>
+        <c:axId val="68947168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43962"/>
@@ -428,11 +532,50 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1827262352"/>
+        <c:crossAx val="68951520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="9"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1353,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,31 +1507,39 @@
     <col min="1" max="1" width="47.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <f>B3+C3</f>
         <v>43946</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2+C2</f>
+        <v>43955</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <f>B4+7</f>
@@ -1397,10 +1548,14 @@
       <c r="C3">
         <v>25</v>
       </c>
+      <c r="D3" s="1">
+        <f>B3+C3</f>
+        <v>43946</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <f>B5+C5</f>
@@ -1409,10 +1564,14 @@
       <c r="C4">
         <v>20</v>
       </c>
+      <c r="D4" s="1">
+        <f>B4+C4</f>
+        <v>43934</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <f>B6+C6</f>
@@ -1421,10 +1580,14 @@
       <c r="C5">
         <v>7</v>
       </c>
+      <c r="D5" s="1">
+        <f>B5+C5</f>
+        <v>43914</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <f>B7+C7</f>
@@ -1433,16 +1596,24 @@
       <c r="C6">
         <v>7</v>
       </c>
+      <c r="D6" s="1">
+        <f>B6+C6</f>
+        <v>43907</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>43880</v>
       </c>
       <c r="C7">
         <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B7+C7</f>
+        <v>43900</v>
       </c>
     </row>
   </sheetData>
